--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12179,4 +12180,5680 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H149"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.4390</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.4437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3812</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4879</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4536</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3727</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>57.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9476</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6490</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5047</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000971</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安新经济股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4368</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4349</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3908</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3400</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009491</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3353</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2978</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2592</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.2443</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2228</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1823</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1170</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0540</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>26.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0442</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005962</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9616</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9595</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9322</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8656</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009859</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华乐享混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7779</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002482</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈互联网沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7689</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000698</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>宝盈科技30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6232</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5923</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5550</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>19.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5451</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4739</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3574</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3485</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008860</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银龙头优选股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3283</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005682</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3092</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008328</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺安新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3040</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005963</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈人工智能主题股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2760</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009492</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>宝盈创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1913</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1831</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富互联网核心资产六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>64.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010128</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>217013</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005729</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华安科创主题 3 年封闭运作灵活配置 混合型</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005119</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华智荟内在价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.58</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0851</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003132</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>德邦新回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005544</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华瑞和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>35.22</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001780</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺安改革趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010129</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>宝盈发展新动能股票C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005492</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>农银汇理研究驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>59.41</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.28</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011020</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>财通资管消费精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004888</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159923</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>大成中证100ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>73.16</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004889</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>财通资管鑫逸回报混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17856,4 +17857,3060 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H80"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>222.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.8429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>112.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7340</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0121</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0886</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国互联科技股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5346</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4761</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010305</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3111</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.92</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1076</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.97</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>690007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001986</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源人工智能主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8016</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6573</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002891</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002892</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002893</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏移动互联灵活配置混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6261</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009697</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5647</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011285</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5488</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011344</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4032</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2092</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1603</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009698</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏成长精选6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010306</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>57.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002649</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银智造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>690009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>民生加银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011126</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国互联科技股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005259</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>建信龙头企业股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011286</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银价值优选6个月持有期股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.31</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>70.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011345</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城融景产业机遇一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>50.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009720</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>民生加银景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>25.16</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合型证券投资基金 O</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20913,4 +20914,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>79</v>
+      </c>
+      <c r="D2" t="n">
+        <v>64.23999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>148</v>
+      </c>
+      <c r="D3" t="n">
+        <v>90.15000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>121</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>185</v>
+      </c>
+      <c r="D5" t="n">
+        <v>132.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20922,7 +20923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20933,17 +20934,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20953,14 +20974,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>79</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.23999999999999</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>206.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -20969,14 +21012,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>148</v>
-      </c>
-      <c r="D3" t="n">
-        <v>90.15000000000001</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>109.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -20985,14 +21050,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>121</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.44</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2754</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -21001,13 +21088,2467 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4741</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8755</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4402</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2245</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2187</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>270007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发大盘成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9743</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9437</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6592</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5329</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5042</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000529</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发竞争优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2609</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010594</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012447</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005347</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德量化优选6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006267</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012448</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏互联网龙头混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010843</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国天润回报混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006268</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德量化核心灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>61.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010844</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国天润回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>79</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.23999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>148</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90.15000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>121</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>185</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>132.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23447,7 +23448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23458,17 +23459,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -23478,14 +23499,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.13</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>226.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -23494,14 +23537,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>79</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.23999999999999</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>105.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -23510,14 +23575,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>148</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.15000000000001</v>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>114.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3194</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -23526,14 +23613,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>121</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.44</v>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0770</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -23542,13 +23651,2599 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3177</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>39.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6686</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3554</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3506</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2935</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1850</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8684</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8634</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7322</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6897</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5672</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>180010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华优质增长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5307</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5045</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>72.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3608</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3435</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006302</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>银华行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>72.27</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>62.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>44.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>48.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>65</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>79</v>
+      </c>
+      <c r="D4" t="n">
+        <v>64.23999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>148</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.15000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>121</v>
+      </c>
+      <c r="D6" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>185</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>132.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26126,7 +26127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26137,17 +26138,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26157,14 +26178,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
-      </c>
-      <c r="D2" t="n">
-        <v>48.68</v>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>282.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.1333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -26173,14 +26216,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.13</v>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>127.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0469</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -26189,14 +26254,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D4" t="n">
-        <v>64.23999999999999</v>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.4793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -26205,14 +26292,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>148</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90.15000000000001</v>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7465</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -26221,14 +26330,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>121</v>
-      </c>
-      <c r="D6" t="n">
-        <v>69.44</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -26237,13 +26368,2349 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2885</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014047</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2885</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2683</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华核心价值优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1540</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9053</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5781</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4026</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>51.75</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3726</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180013</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华领先策略混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1340</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005974</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005975</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方红配置精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002194</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>北信瑞丰稳定增强偏债混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48.68</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>65</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>79</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.23999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>148</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90.15000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>121</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>185</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>132.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
+++ b/数据整理/stocks/A股/科创板/688111-金山办公.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="D2" t="n">
-        <v>36.84</v>
+        <v>71.48999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" t="n">
-        <v>48.68</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13</v>
+        <v>48.68</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>64.23999999999999</v>
+        <v>44.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n">
-        <v>90.15000000000001</v>
+        <v>64.23999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D7" t="n">
-        <v>69.44</v>
+        <v>90.15000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D8" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>185</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>132.26</v>
       </c>
     </row>
@@ -600,6 +617,7534 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H198"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>293.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.7046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>123.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8040</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华心佳两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>108.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>105.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧创新未来混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8633</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9302</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>180031</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6507</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6281</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010377</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值核心混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5832</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4454</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3310</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7871</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6960</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>588180</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6791</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6515</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014585</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6118</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6048</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010180</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏科技龙头两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5064</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5001</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安成长创新混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>41.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4417</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011908</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>506002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银主题优选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002229</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏经济转型股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3978</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009119</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发品质回报混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3498</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3239</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>040025</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010378</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发价值核心混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014919</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>588100</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013623</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财周期轮动一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>61.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2564</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2085</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014043</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006868</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏科技成长股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009085</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华丰享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>69.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000167</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001072</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1772</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010681</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华夏新兴成长股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>588060</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002563</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泓德泓汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>515230</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014754</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000214</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发成长优选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013680</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014920</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>银华心选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011909</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发沪港深价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>588260</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安上证科创板新一代信息技术ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006122</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013884</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银主题优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>70.23</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006671</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发消费升级股票</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>560002</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>益民红利成长混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001203</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006136</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发估值优势混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>169106</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方红创新优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014586</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>银华心兴三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008635</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华安科技创新混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0904</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>万家人工智能混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001405</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013861</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>67.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007854</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>光大保德信景气先锋混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005250</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华估值优势混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>588280</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华安上证科创板50ETF</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009955</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012131</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>景顺长城先进智造混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商中证全指软件ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013681</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安品质甄选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>42.70</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002134</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发鑫裕灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>501053</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东方红目标优选三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012182</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>501073</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>013862</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泓德产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001204</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东方红稳健精选混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>016029</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>588150</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014755</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华安景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>360012</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>光大保德信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159738</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>95.55</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001406</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>东方红策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>65.31</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>31.95</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>517390</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深云计算产业ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009120</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发品质回报混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011144</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>001723</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>华商新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005848</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>银华裕利混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>63.67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>001068</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>华融新锐灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>53.47</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>66.44</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>011145</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>华安汇宏精选混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>012183</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>广发沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>015641</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>银华数字经济股票A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>016030</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>湘财成长优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>75.14</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>016099</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>华安成长创新混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>003308</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>014162</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>万家人工智能混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011430</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>广发估值优势混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>013622</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华安智能装备主题股票C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>004635</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中信建投睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014975</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>华安科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>014970</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华安低碳生活混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>015642</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>银华数字经济股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>960009</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>广发聚优灵活配置混合H</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>67.22</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>016071</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>华安智联混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>38.43</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3049,7 +10594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5727,7 +13272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8251,7 +15796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11307,7 +18852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16983,7 +24528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21637,7 +29182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
